--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billy\Documents\ffproject\CapstoneFFProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01FFD494-886A-4ECD-9FFB-1CB047A47391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F3FF4D-798A-4D71-9F3A-7B43FBF3D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{869E26AF-D5C6-43AA-B311-CADB6BFF3903}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{869E26AF-D5C6-43AA-B311-CADB6BFF3903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>passing efficiency rating</t>
   </si>
   <si>
     <t>(84*passing yards + 330*passing touchdowns - 200*interceptions + 100*completions) / passing attempts</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Pick</t>
+  </si>
+  <si>
+    <t>Pick of the draft where player was selected</t>
+  </si>
+  <si>
+    <t>Round of the draft where player was selected (ranges from 1-7)</t>
   </si>
 </sst>
 </file>
@@ -83,13 +101,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3965CF-8EF2-458C-8F53-BAB4559881D7}">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -414,14 +435,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
